--- a/data/data_calendarSpreads/ADANIENT.xlsx
+++ b/data/data_calendarSpreads/ADANIENT.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2747,6 +2747,17 @@
         <v>132.25</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" s="3" t="n">
+        <v>43584.9232806126</v>
+      </c>
+      <c r="B214" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="C214" t="n">
+        <v>131.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/data_calendarSpreads/ADANIENT.xlsx
+++ b/data/data_calendarSpreads/ADANIENT.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2758,6 +2758,17 @@
         <v>131.5</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" s="3" t="n">
+        <v>43585.48946042677</v>
+      </c>
+      <c r="B215" t="n">
+        <v>127.95</v>
+      </c>
+      <c r="C215" t="n">
+        <v>127.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
